--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1875.774975368006</v>
+        <v>1824.899659681731</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.6922511118804</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.86788862250372</v>
+        <v>15.23250213508452</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.8206128786236</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1424.770000000006</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.36</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -799,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -901,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -912,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -973,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.77588400245558</v>
+        <v>19.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -981,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>26.81550631967969</v>
       </c>
     </row>
     <row r="5">
@@ -989,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -997,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.37739353073907</v>
+        <v>35.91835541786301</v>
       </c>
     </row>
     <row r="7">
@@ -1005,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.22411599754442</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.13729949371544</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.90513640446556</v>
+        <v>41.34615423506322</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1092,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1106,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1120,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1131,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1145,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1159,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1173,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1187,13 +1143,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1201,13 +1157,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1218,12 +1174,138 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>129.5550000000004</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1337,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>137.4900000000004</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1348,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>141.4600000000004</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1359,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>142.9700000000005</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>140.1100000000004</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1381,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1392,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1403,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1414,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1425,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1436,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1447,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1458,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1469,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1480,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1491,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999994</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
@@ -1502,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
@@ -1513,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
@@ -1524,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
@@ -1535,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
@@ -1546,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
@@ -1557,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
@@ -1568,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
@@ -1579,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
@@ -1590,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32">
@@ -1601,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>129.5550000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1612,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>137.4900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1623,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>141.4600000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>142.9700000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1645,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>140.1100000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1656,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1667,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1678,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1689,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1700,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1711,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>101.3750000000008</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43">
@@ -1722,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>103.0400000000008</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44">
@@ -1733,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>103.9250000000008</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45">
@@ -1744,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>105.4350000000008</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
@@ -1755,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>105.7050000000008</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29.55500000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1813,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>37.49000000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1824,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>41.46000000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1835,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>42.97000000000045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1846,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>40.11000000000041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1857,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0599999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1868,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.43499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1879,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1890,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.83999999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1901,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1912,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.375000000000796</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -1923,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3.040000000000802</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -1934,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3.925000000000807</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -1945,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.435000000000798</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -1956,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.705000000000794</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2014,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2025,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2036,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2047,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2058,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2069,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2080,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2091,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2102,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2113,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2124,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2135,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2146,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2157,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2223,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2234,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2245,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2256,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2267,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,10 +2500,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2429,10 +2511,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2443,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2454,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2465,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2473,10 +2555,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2484,12 +2566,45 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
